--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lg\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,22 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,7 +367,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:T10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -360,16 +376,25 @@
       <c r="A1">
         <v>1</v>
       </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4">
@@ -466,5 +491,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>